--- a/xls/14048-108-240005162(2)_3.xlsx
+++ b/xls/14048-108-240005162(2)_3.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ค่ารักษาพยาบาล</t>
+          <t>ค่ารักษาพยาบาลทั่วไป</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
